--- a/DataResources/Data.xlsx
+++ b/DataResources/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartikeysharma\Automation_QA\pythonAssignment\DataResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7F7D4C-7102-4E16-9B0E-97087102AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78C537-D4F5-4D4D-B9ED-F1013379E062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -94,9 +94,6 @@
     <t>mobilenumber</t>
   </si>
   <si>
-    <t>kartikeysharmaa222@gmail.com</t>
-  </si>
-  <si>
     <t>card number</t>
   </si>
   <si>
@@ -113,6 +110,15 @@
   </si>
   <si>
     <t>Men Tshirt</t>
+  </si>
+  <si>
+    <t>Kartik</t>
+  </si>
+  <si>
+    <t>kartik sharma</t>
+  </si>
+  <si>
+    <t>kartikeysharma222@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -480,16 +486,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BC6FE3-D276-487D-AF5E-ABF9206C3843}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
     <col min="3" max="3" width="20.453125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="12.54296875" customWidth="1"/>
@@ -540,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -568,12 +574,49 @@
       </c>
       <c r="K2">
         <v>7818787160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>208001</v>
+      </c>
+      <c r="K3">
+        <v>1234567890</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B2F91867-EB7B-4CB4-9BF6-46E550C60B52}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{453104EC-639B-4FBA-9241-36B7CE4FDC16}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{9E5FF801-8E4F-495D-92D4-90668F2C7FEE}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{9BB766DE-F71C-4F3D-AFD1-B925BD03D94E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -601,16 +644,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -639,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205778F8-76BA-49D9-AF14-FC8405AFFA03}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -650,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
